--- a/backtest/doublesort.cond2 10x10.xlsx
+++ b/backtest/doublesort.cond2 10x10.xlsx
@@ -160,34 +160,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.027028952893206643</v>
+        <v>0.022486554630907013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.013105389417999906</v>
+        <v>0.009313413564835355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.011492810331358278</v>
+        <v>0.008991622033517969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.012274423671516814</v>
+        <v>0.008755318017551122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01191345132528835</v>
+        <v>0.0072879978592081335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.010069272915460982</v>
+        <v>0.008833701732853324</v>
       </c>
       <c r="H2" t="n">
-        <v>0.010498986032959663</v>
+        <v>0.00837426174053793</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011333786983256494</v>
+        <v>0.008083785368429458</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008475473792813338</v>
+        <v>0.0059330725288718805</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003512349403157814</v>
+        <v>-0.0017797536660532818</v>
       </c>
     </row>
     <row r="3">
@@ -195,34 +195,34 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0.029126920070291218</v>
+        <v>0.022081340426440773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0112992070948743</v>
+        <v>0.013467388210139736</v>
       </c>
       <c r="D3" t="n">
-        <v>0.012325017860161774</v>
+        <v>0.012150098750306431</v>
       </c>
       <c r="E3" t="n">
-        <v>0.015581695968839468</v>
+        <v>0.011509005363518347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006787951048910385</v>
+        <v>0.010800333215483992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009980108795146938</v>
+        <v>0.012078775391553291</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008562232657900199</v>
+        <v>0.008917925826581661</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008058061073730654</v>
+        <v>0.00717646206321071</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009223187675513195</v>
+        <v>0.005694144799420505</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004870127939464112</v>
+        <v>-0.002757845392219783</v>
       </c>
     </row>
     <row r="4">
@@ -230,34 +230,34 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02473893610231293</v>
+        <v>0.02541349649489227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008752021161955415</v>
+        <v>0.014810688144222197</v>
       </c>
       <c r="D4" t="n">
-        <v>0.010093328998256372</v>
+        <v>0.011741704712738001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.009689996479084428</v>
+        <v>0.01306747315137245</v>
       </c>
       <c r="F4" t="n">
-        <v>0.010849228664447493</v>
+        <v>0.010350527108535854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.012143191775933558</v>
+        <v>0.011031243304486576</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009657901750243466</v>
+        <v>0.010131681840571156</v>
       </c>
       <c r="I4" t="n">
-        <v>0.013142129165323754</v>
+        <v>0.008206615544502156</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009274317185020425</v>
+        <v>0.008419455799710355</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0033328930191748245</v>
+        <v>-1.8240281404688602E-4</v>
       </c>
     </row>
     <row r="5">
@@ -265,34 +265,34 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03163024690796171</v>
+        <v>0.025080059666406338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.012355550230176999</v>
+        <v>0.016334975104075337</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00890276600874215</v>
+        <v>0.012044750450310084</v>
       </c>
       <c r="E5" t="n">
-        <v>0.012195256767101446</v>
+        <v>0.014473506010643409</v>
       </c>
       <c r="F5" t="n">
-        <v>0.011156064791270731</v>
+        <v>0.01217831423139425</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01569846464163927</v>
+        <v>0.012150248144298204</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009529732582354122</v>
+        <v>0.011256524105493946</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008200554549102413</v>
+        <v>0.008621277205242762</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0070542727845331245</v>
+        <v>0.006950328569711939</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004809068907772253</v>
+        <v>-9.793044554042827E-4</v>
       </c>
     </row>
     <row r="6">
@@ -300,34 +300,34 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02697066019438928</v>
+        <v>0.024931840883649428</v>
       </c>
       <c r="C6" t="n">
-        <v>0.012475389906338766</v>
+        <v>0.016801398938468864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01230558508120334</v>
+        <v>0.01630499933613692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.012706365396712126</v>
+        <v>0.013385325711040019</v>
       </c>
       <c r="F6" t="n">
-        <v>0.011265161687200093</v>
+        <v>0.013442544693056694</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012017810691390208</v>
+        <v>0.012479077463661654</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009537099387090651</v>
+        <v>0.01227319672560828</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009890999913915625</v>
+        <v>0.010087346359720674</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006584882308902291</v>
+        <v>0.007170557381581785</v>
       </c>
       <c r="K6" t="n">
-        <v>6.336828982083652E-4</v>
+        <v>8.474270346471845E-4</v>
       </c>
     </row>
     <row r="7">
@@ -335,34 +335,34 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>0.022821761362540962</v>
+        <v>0.02635843221273977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0091031971833577</v>
+        <v>0.016593770886262845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.011457613255798303</v>
+        <v>0.013847356577699688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.015121277796376785</v>
+        <v>0.01502508852477191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.010114406854063179</v>
+        <v>0.012505226574285407</v>
       </c>
       <c r="G7" t="n">
-        <v>0.010527416907592548</v>
+        <v>0.012915457610739077</v>
       </c>
       <c r="H7" t="n">
-        <v>0.012379327995585547</v>
+        <v>0.011584598001367862</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009079818977798255</v>
+        <v>0.011544128521663281</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0057505936630186825</v>
+        <v>0.008893050260126423</v>
       </c>
       <c r="K7" t="n">
-        <v>9.747938228938583E-4</v>
+        <v>0.0013009572236924389</v>
       </c>
     </row>
     <row r="8">
@@ -370,34 +370,34 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0.024252658848933007</v>
+        <v>0.025863475140278685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007524264381612886</v>
+        <v>0.016002822467178275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.010101557226376148</v>
+        <v>0.013427586862652996</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01122475703599697</v>
+        <v>0.014209121328980783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.010576956045189604</v>
+        <v>0.013863959651033804</v>
       </c>
       <c r="G8" t="n">
-        <v>0.010782261353514089</v>
+        <v>0.012573361890657093</v>
       </c>
       <c r="H8" t="n">
-        <v>0.012343927214715694</v>
+        <v>0.012208629335487463</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008393598435610607</v>
+        <v>0.010780767202464313</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006092891356142335</v>
+        <v>0.008449623481550532</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00444171261653324</v>
+        <v>0.0019164986070966054</v>
       </c>
     </row>
     <row r="9">
@@ -405,34 +405,34 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02142955995500243</v>
+        <v>0.02679928819378883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.011633279795880011</v>
+        <v>0.015944887652853706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00850597770207231</v>
+        <v>0.014671756716601187</v>
       </c>
       <c r="E9" t="n">
-        <v>0.010260766610835735</v>
+        <v>0.01466875478166841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.012486057873321289</v>
+        <v>0.014214452727044647</v>
       </c>
       <c r="G9" t="n">
-        <v>0.011592708959247779</v>
+        <v>0.011831257636288022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.012142367174579748</v>
+        <v>0.012069152698802908</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009786736556147833</v>
+        <v>0.01094172186278519</v>
       </c>
       <c r="J9" t="n">
-        <v>0.011503968338664485</v>
+        <v>0.008530987793567651</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004734357869272463</v>
+        <v>0.0029251718367048424</v>
       </c>
     </row>
     <row r="10">
@@ -440,34 +440,34 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>0.023554453554248383</v>
+        <v>0.0263070946847861</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00498081936495583</v>
+        <v>0.016243459966092732</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006871705795712196</v>
+        <v>0.015057916356043645</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007299425267394927</v>
+        <v>0.016028812857120395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.013634138552781765</v>
+        <v>0.014578733176391714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009624900394380928</v>
+        <v>0.012769427622267704</v>
       </c>
       <c r="H10" t="n">
-        <v>0.011083452816038345</v>
+        <v>0.011726372735808725</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009049458342282699</v>
+        <v>0.011581912019667791</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007818110610509405</v>
+        <v>0.011681352667811647</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.001954942156949549</v>
+        <v>0.0017580057314595218</v>
       </c>
     </row>
     <row r="11">
@@ -475,34 +475,34 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016351522870121742</v>
+        <v>0.017484962693016238</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004863681816079601</v>
+        <v>0.011462835834951104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0055164328096630735</v>
+        <v>0.013089050381396102</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006655389672702341</v>
+        <v>0.012450222492325807</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0073775669839290705</v>
+        <v>0.01176103463378782</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009435779563679265</v>
+        <v>0.011787337068920073</v>
       </c>
       <c r="H11" t="n">
-        <v>0.010711032575631845</v>
+        <v>0.010595785516753378</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00888565947382851</v>
+        <v>0.009418366501135072</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01034863783336947</v>
+        <v>0.008123947471115391</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0021613483227685337</v>
+        <v>0.006780204219093239</v>
       </c>
     </row>
   </sheetData>
